--- a/VT_Model_ALL_V01 (1).xlsx
+++ b/VT_Model_ALL_V01 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\IPoY_EK\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\PK_VEDA\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030313E-95B7-4106-949A-7933AD82A4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1822B9-ECB9-44CB-BDFD-96D67751C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2784,22 +2784,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2810,6 +2798,18 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="27" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3694,7 +3694,7 @@
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="133" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
       <c r="J4" s="103"/>
-      <c r="K4" s="126"/>
+      <c r="K4" s="133"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="101"/>
@@ -3740,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="103"/>
-      <c r="K5" s="126"/>
+      <c r="K5" s="133"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="101"/>
@@ -3769,7 +3769,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="103"/>
-      <c r="K6" s="126"/>
+      <c r="K6" s="133"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="101"/>
@@ -3792,7 +3792,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="103"/>
-      <c r="K7" s="126"/>
+      <c r="K7" s="133"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="101"/>
@@ -3815,7 +3815,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="103"/>
-      <c r="K8" s="126"/>
+      <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="101"/>
@@ -3838,7 +3838,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="103"/>
-      <c r="K9" s="126"/>
+      <c r="K9" s="133"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="101"/>
@@ -3861,7 +3861,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="103"/>
-      <c r="K10" s="126"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="101"/>
@@ -3884,7 +3884,7 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="103"/>
-      <c r="K11" s="126"/>
+      <c r="K11" s="133"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="104"/>
@@ -3897,14 +3897,14 @@
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
       <c r="J12" s="106"/>
-      <c r="K12" s="126"/>
+      <c r="K12" s="133"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="132"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="93" t="s">
@@ -3963,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B32" sqref="B31:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5099,11 +5099,11 @@
       <c r="B17" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="59" t="str">
@@ -5113,8 +5113,14 @@
       <c r="C18" s="82">
         <v>200</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
+      <c r="D18" s="82">
+        <f>C18*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E18" s="82">
+        <f>D18*1.1</f>
+        <v>242.00000000000006</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="13.5" thickBot="1">
       <c r="B19" s="85"/>
@@ -5142,8 +5148,8 @@
       <c r="B24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="59" t="str">
@@ -5162,10 +5168,10 @@
         <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="131">
+      <c r="D26" s="127">
         <v>0.1</v>
       </c>
     </row>
@@ -5186,10 +5192,10 @@
         <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="131">
+      <c r="D28" s="127">
         <v>0.1</v>
       </c>
     </row>
@@ -5210,10 +5216,10 @@
         <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="131">
+      <c r="D30" s="127">
         <v>0.1</v>
       </c>
     </row>
@@ -5222,22 +5228,22 @@
         <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="131">
+      <c r="D31" s="127">
         <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="133" t="str">
+      <c r="B32" s="129" t="str">
         <f>SEC_Comm!$C$8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="C32" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="135">
+      <c r="D32" s="131">
         <v>0.1</v>
       </c>
     </row>
@@ -5322,11 +5328,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="59"/>
@@ -5372,15 +5378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5524,6 +5521,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5531,14 +5537,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5552,6 +5550,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
